--- a/result/atest_060_zernikemomentcalctime_GPU_10P_3K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_10P_3K.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.537835448337492</v>
+        <v>0.8915219081831895</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9085716963854269</v>
+        <v>-0.9947905175848262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.133143424987793</v>
+        <v>0.1066057682037354</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5838122367858887</v>
+        <v>0.1630899906158447</v>
       </c>
       <c r="H2" t="n">
-        <v>2.283030986785889</v>
+        <v>0.2945501804351807</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999955495198568</v>
+        <v>0.1880819797515869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,22 +516,22 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.575227225131905</v>
+        <v>0.8766954906200058</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2440702788769738</v>
+        <v>-0.7155686546591136</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5512259006500244</v>
+        <v>0.2011017799377441</v>
       </c>
       <c r="G3" t="n">
-        <v>3.721427440643311</v>
+        <v>0.3139815330505371</v>
       </c>
       <c r="H3" t="n">
-        <v>9.11310338973999</v>
+        <v>0.5434701442718506</v>
       </c>
       <c r="I3" t="n">
-        <v>4.461918910344441</v>
+        <v>0.3528511524200439</v>
       </c>
     </row>
     <row r="4">
@@ -542,29 +542,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1616720876726415</v>
+        <v>0.5877814996341977</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6159260011567452</v>
+        <v>-0.9366089275916722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2866430282592773</v>
+        <v>0.1217770576477051</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1370525360107422</v>
+        <v>0.1514430046081543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2705130577087402</v>
+        <v>0.240847110748291</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2314028739929199</v>
+        <v>0.1713557243347168</v>
       </c>
     </row>
     <row r="5">
@@ -575,29 +575,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9178005184127433</v>
+        <v>0.8557858166739061</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7616172230668391</v>
+        <v>-1.045450010460774</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1825218200683594</v>
+        <v>0.09520936012268066</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2834873199462891</v>
+        <v>0.1402127742767334</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5193827152252197</v>
+        <v>0.2535791397094727</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3284639517466227</v>
+        <v>0.1630004247029622</v>
       </c>
     </row>
   </sheetData>
